--- a/Sales Data 2023/03Mar2023.xlsx
+++ b/Sales Data 2023/03Mar2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE5A52D-01E0-471B-B0DC-B1A1B4B319D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77A6F0C-DDA2-4A2B-B22F-740CF194C192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Sales Data 2023/03Mar2023.xlsx
+++ b/Sales Data 2023/03Mar2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77A6F0C-DDA2-4A2B-B22F-740CF194C192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDF89E-3438-4698-A0F0-4E37B0CAD6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SalesData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$J$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$K$175</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="116">
   <si>
     <t>ORDERNUMBER_MONTH</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>SMB-04-NNDIS</t>
+  </si>
+  <si>
+    <t>PROFIT</t>
+  </si>
+  <si>
+    <t>EXTERNALSTORAGE</t>
   </si>
 </sst>
 </file>
@@ -699,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +724,7 @@
     <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -749,8 +755,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -776,8 +785,12 @@
         <f t="shared" ref="H2:H33" si="0">D2*G2</f>
         <v>500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -803,8 +816,12 @@
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
+        <v>525000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -830,8 +847,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -845,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -858,8 +879,12 @@
         <v>1850000</v>
       </c>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -885,8 +910,12 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -912,8 +941,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -939,8 +972,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -966,8 +1003,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -981,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
         <v>93</v>
@@ -993,8 +1034,12 @@
         <f t="shared" si="0"/>
         <v>1185000</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1020,8 +1065,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1047,8 +1096,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>357500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>73</v>
       </c>
@@ -1062,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -1074,8 +1127,12 @@
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1101,8 +1158,12 @@
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1129,8 +1190,12 @@
         <v>90000</v>
       </c>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1156,8 +1221,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1183,8 +1252,12 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1210,8 +1283,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1237,8 +1314,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1264,8 +1345,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1291,8 +1376,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1318,8 +1407,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1345,8 +1438,12 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1372,8 +1469,12 @@
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1399,8 +1500,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1426,8 +1531,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1453,8 +1562,12 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1480,8 +1593,12 @@
         <f t="shared" si="0"/>
         <v>185000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1507,8 +1624,12 @@
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1534,8 +1655,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1561,8 +1686,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1588,8 +1717,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1615,8 +1748,12 @@
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1639,11 +1776,15 @@
         <v>130000</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" ref="H34:H65" si="1">D34*G34</f>
+        <f t="shared" ref="H34:H65" si="2">D34*G34</f>
         <v>130000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1666,11 +1807,15 @@
         <v>700000</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>364000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1693,11 +1838,15 @@
         <v>200000</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1720,11 +1869,15 @@
         <v>150000</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1747,11 +1900,15 @@
         <v>200000</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1774,11 +1931,15 @@
         <v>100000</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1801,11 +1962,15 @@
         <v>450000</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1828,11 +1993,15 @@
         <v>650000</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1855,11 +2024,15 @@
         <v>100000</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1882,11 +2055,15 @@
         <v>400000</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1909,11 +2086,15 @@
         <v>600000</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1936,11 +2117,15 @@
         <v>100000</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1963,11 +2148,15 @@
         <v>450000</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1990,11 +2179,15 @@
         <v>100000</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2017,11 +2210,15 @@
         <v>550000</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2044,11 +2241,15 @@
         <v>100000</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2071,11 +2272,15 @@
         <v>200000</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2098,11 +2303,15 @@
         <v>300000</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2125,11 +2334,15 @@
         <v>550000</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2152,12 +2365,16 @@
         <v>300000</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2180,11 +2397,15 @@
         <v>350000</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>244999.99999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2207,14 +2428,18 @@
         <v>325000</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>325000</v>
       </c>
       <c r="I55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2237,14 +2462,18 @@
         <v>100000</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2267,11 +2496,15 @@
         <v>250000</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2294,11 +2527,15 @@
         <v>550000</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>357500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2321,11 +2558,15 @@
         <v>200000</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2348,11 +2589,15 @@
         <v>200000</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2375,11 +2620,15 @@
         <v>100000</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2402,12 +2651,16 @@
         <v>630000</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>630000</v>
       </c>
       <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2430,11 +2683,15 @@
         <v>200000</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2457,11 +2714,15 @@
         <v>300000</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2484,11 +2745,15 @@
         <v>150000</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2511,11 +2776,15 @@
         <v>650000</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" ref="H66:H97" si="2">D66*G66</f>
+        <f t="shared" ref="H66:H97" si="3">D66*G66</f>
         <v>650000</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2538,12 +2807,16 @@
         <v>200000</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
       <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="4">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2566,11 +2839,15 @@
         <v>100000</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2593,11 +2870,15 @@
         <v>400000</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2620,11 +2901,15 @@
         <v>500000</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2647,11 +2932,15 @@
         <v>70000</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2674,11 +2963,15 @@
         <v>150000</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2701,11 +2994,15 @@
         <v>200000</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2728,11 +3025,15 @@
         <v>500000</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2755,11 +3056,15 @@
         <v>450000</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2782,11 +3087,15 @@
         <v>325000</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>325000</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>211250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2809,11 +3118,15 @@
         <v>100000</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2836,14 +3149,18 @@
         <v>200000</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
       <c r="I78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2866,14 +3183,18 @@
         <v>50000</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="I79" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2896,11 +3217,15 @@
         <v>200000</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2923,11 +3248,15 @@
         <v>50000</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2950,11 +3279,15 @@
         <v>450000</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2977,11 +3310,15 @@
         <v>70000</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3004,11 +3341,15 @@
         <v>50000</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3031,11 +3372,15 @@
         <v>50000</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3058,11 +3403,15 @@
         <v>400000</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3085,11 +3434,15 @@
         <v>550000</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3112,15 +3465,19 @@
         <v>180000</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180000</v>
       </c>
       <c r="I88" s="2">
         <f>SUM(H86:H88)</f>
         <v>1130000</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f t="shared" si="4"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3143,11 +3500,15 @@
         <v>100000</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3170,11 +3531,15 @@
         <v>100000</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3197,11 +3562,15 @@
         <v>100000</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3224,11 +3593,15 @@
         <v>150000</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3251,11 +3624,15 @@
         <v>100000</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3278,11 +3655,15 @@
         <v>300000</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f t="shared" si="4"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3305,11 +3686,15 @@
         <v>30000</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3332,11 +3717,15 @@
         <v>100000</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3359,11 +3748,15 @@
         <v>180000</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f t="shared" si="4"/>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3386,11 +3779,15 @@
         <v>200000</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" ref="H98:H129" si="3">D98*G98</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H98:H129" si="5">D98*G98</f>
+        <v>200000</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3413,11 +3810,15 @@
         <v>100000</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3440,11 +3841,15 @@
         <v>200000</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3467,11 +3872,15 @@
         <v>350000</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3494,11 +3903,15 @@
         <v>200000</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f t="shared" si="4"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3521,11 +3934,15 @@
         <v>350000</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3548,11 +3965,15 @@
         <v>350000</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3575,11 +3996,15 @@
         <v>70000</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>210000</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <f t="shared" si="4"/>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3602,11 +4027,15 @@
         <v>200000</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="4"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3629,11 +4058,15 @@
         <v>575000</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>575000</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <f t="shared" si="4"/>
+        <v>373750</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3656,11 +4089,15 @@
         <v>100000</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3683,11 +4120,15 @@
         <v>100000</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3710,11 +4151,15 @@
         <v>180000</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <f t="shared" si="4"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3737,11 +4182,15 @@
         <v>150000</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3764,11 +4213,15 @@
         <v>100000</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3791,11 +4244,15 @@
         <v>320000</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>320000</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <f t="shared" si="4"/>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3818,11 +4275,15 @@
         <v>200000</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="4"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3845,11 +4306,15 @@
         <v>50000</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3872,11 +4337,15 @@
         <v>50000</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3899,11 +4368,15 @@
         <v>350000</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3926,11 +4399,15 @@
         <v>350000</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3953,11 +4430,15 @@
         <v>550000</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <f t="shared" si="4"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3980,11 +4461,15 @@
         <v>650000</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <f t="shared" si="4"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4007,11 +4492,15 @@
         <v>200000</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4034,11 +4523,15 @@
         <v>550000</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <f t="shared" si="4"/>
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4061,11 +4554,15 @@
         <v>200000</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4088,11 +4585,15 @@
         <v>100000</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4115,11 +4616,15 @@
         <v>300000</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4142,11 +4647,15 @@
         <v>200000</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="4"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4169,11 +4678,15 @@
         <v>100000</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4196,11 +4709,15 @@
         <v>350000</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4223,11 +4740,15 @@
         <v>200000</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="4"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4250,11 +4771,15 @@
         <v>100000</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" ref="H130:H152" si="4">D130*G130</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H130:H152" si="6">D130*G130</f>
+        <v>200000</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4277,11 +4802,15 @@
         <v>180000</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <f t="shared" ref="K131:K175" si="7">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*65%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*70%,IF(E131="KEYBOARD",H131*60%,IF(E131="ADAPTOR",H131*45%,IF(E131="MAINBOARD",H131*15%,IF(E131="ACCESSORIES",H131*25%,IF(E131="VGA",H131*15%,IF(E131="POWERSUPPLY",H131*40%,IF(E131="PROCESSOR",H131*20%,IF(E131="SECOND",H131*150%,IF(E131="CASING",H131*15%,IF(E131="MONITOR",H131*5%,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4304,12 +4833,16 @@
         <v>420000</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>420000</v>
       </c>
       <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <f t="shared" si="7"/>
+        <v>273000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4332,11 +4865,15 @@
         <v>120000</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120000</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <f t="shared" si="7"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4359,11 +4896,15 @@
         <v>450000</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <f t="shared" si="7"/>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4386,11 +4927,15 @@
         <v>330000</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>330000</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <f t="shared" si="7"/>
+        <v>230999.99999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4413,11 +4958,15 @@
         <v>100000</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="4"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="7"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4440,11 +4989,15 @@
         <v>50000</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4467,11 +5020,15 @@
         <v>200000</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="4"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4494,11 +5051,15 @@
         <v>250000</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <f t="shared" si="7"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4521,11 +5082,15 @@
         <v>100000</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4548,11 +5113,15 @@
         <v>350000</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <f t="shared" si="7"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4575,11 +5144,15 @@
         <v>250000</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <f t="shared" si="7"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4602,7 +5175,7 @@
         <v>100000</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100000</v>
       </c>
       <c r="I143" t="s">
@@ -4611,8 +5184,12 @@
       <c r="J143" s="3">
         <v>62895327079005</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4635,11 +5212,15 @@
         <v>50000</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4662,11 +5243,15 @@
         <v>100000</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4689,11 +5274,15 @@
         <v>250000</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <f t="shared" si="7"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4716,11 +5305,15 @@
         <v>250000</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <f t="shared" si="7"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4743,11 +5336,15 @@
         <v>130000</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <f t="shared" si="7"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4770,11 +5367,15 @@
         <v>100000</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4797,11 +5398,15 @@
         <v>200000</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="4"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4824,11 +5429,15 @@
         <v>100000</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4851,11 +5460,15 @@
         <v>300000</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <f t="shared" si="7"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4878,11 +5491,15 @@
         <v>100000</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" ref="H153:H175" si="5">D153*G153</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H153:H175" si="8">D153*G153</f>
+        <v>100000</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4905,11 +5522,15 @@
         <v>150000</v>
       </c>
       <c r="H154" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <f t="shared" si="7"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4932,11 +5553,15 @@
         <v>600000</v>
       </c>
       <c r="H155" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <f t="shared" si="7"/>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4959,11 +5584,15 @@
         <v>485000</v>
       </c>
       <c r="H156" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>970000</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <f t="shared" si="7"/>
+        <v>630500</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4986,11 +5615,15 @@
         <v>100000</v>
       </c>
       <c r="H157" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5013,11 +5646,15 @@
         <v>50000</v>
       </c>
       <c r="H158" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5040,11 +5677,15 @@
         <v>100000</v>
       </c>
       <c r="H159" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5067,11 +5708,15 @@
         <v>200000</v>
       </c>
       <c r="H160" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="7"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5094,11 +5739,15 @@
         <v>180000</v>
       </c>
       <c r="H161" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <f t="shared" si="7"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5121,11 +5770,15 @@
         <v>200000</v>
       </c>
       <c r="H162" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="7"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5148,11 +5801,15 @@
         <v>350000</v>
       </c>
       <c r="H163" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <f t="shared" si="7"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5175,11 +5832,15 @@
         <v>150000</v>
       </c>
       <c r="H164" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5202,11 +5863,15 @@
         <v>200000</v>
       </c>
       <c r="H165" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5229,11 +5894,15 @@
         <v>90000</v>
       </c>
       <c r="H166" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>90000</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <f t="shared" si="7"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5256,11 +5925,15 @@
         <v>700000</v>
       </c>
       <c r="H167" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <f t="shared" si="7"/>
+        <v>364000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5283,11 +5956,15 @@
         <v>180000</v>
       </c>
       <c r="H168" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <f t="shared" si="7"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5310,11 +5987,15 @@
         <v>100000</v>
       </c>
       <c r="H169" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5337,11 +6018,15 @@
         <v>350000</v>
       </c>
       <c r="H170" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <f t="shared" si="7"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5364,11 +6049,15 @@
         <v>200000</v>
       </c>
       <c r="H171" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="7"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5391,11 +6080,15 @@
         <v>200000</v>
       </c>
       <c r="H172" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="7"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5409,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F173" t="s">
         <v>108</v>
@@ -5418,11 +6111,15 @@
         <v>1200000</v>
       </c>
       <c r="H173" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1200000</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5445,11 +6142,15 @@
         <v>600000</v>
       </c>
       <c r="H174" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <f t="shared" si="7"/>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5472,15 +6173,19 @@
         <v>400000</v>
       </c>
       <c r="H175" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <f t="shared" si="7"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J175" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K175" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sales Data 2023/03Mar2023.xlsx
+++ b/Sales Data 2023/03Mar2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDF89E-3438-4698-A0F0-4E37B0CAD6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE52C664-E4AC-4C27-899F-AB1CD1407232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,8 +382,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -420,11 +421,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +724,7 @@
     <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -785,9 +788,9 @@
         <f t="shared" ref="H2:H33" si="0">D2*G2</f>
         <v>500000</v>
       </c>
-      <c r="K2">
-        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
-        <v>300000</v>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:K33" si="1">IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*52%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*45%,IF(E2="KEYBOARD",150000,IF(E2="ADAPTOR",H2*40%,IF(E2="MAINBOARD",100000,IF(E2="ACCESSORIES",H2*35%,IF(E2="VGA",100000,IF(E2="POWERSUPPLY",H2*30%,IF(E2="PROCESSOR",150000,IF(E2="SECOND",H2*150%,IF(E2="CASING",100000,IF(E2="MONITOR",100000,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+        <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -816,9 +819,9 @@
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
-        <v>525000</v>
+      <c r="K3" s="4">
+        <f t="shared" si="1"/>
+        <v>337500</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -847,7 +850,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -879,7 +882,7 @@
         <v>1850000</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="K5">
+      <c r="K5" s="4">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -910,7 +913,7 @@
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
@@ -941,7 +944,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -972,9 +975,9 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1003,7 +1006,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -1013,10 +1016,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>45005</v>
+        <v>44987</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1034,7 +1037,7 @@
         <f t="shared" si="0"/>
         <v>1185000</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>44988</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1065,9 +1068,9 @@
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>260000</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1078,7 +1081,7 @@
         <v>44988</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1096,40 +1099,40 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>357500</v>
+        <v>286000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44999</v>
+        <v>44988</v>
       </c>
       <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G13" s="2">
-        <v>1050000</v>
+        <v>55000</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>1050000</v>
-      </c>
-      <c r="K13">
+        <v>110000</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>38500</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1140,27 +1143,28 @@
         <v>44988</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2">
-        <v>55000</v>
+        <v>90000</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>110000</v>
-      </c>
-      <c r="K14">
+        <v>90000</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>27500</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1168,31 +1172,30 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2">
-        <v>90000</v>
+        <v>200000</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>90000</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="K15">
+        <v>200000</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1203,27 +1206,27 @@
         <v>44989</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="2">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="K16">
+        <v>400000</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>120000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1234,27 +1237,27 @@
         <v>44989</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="2">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="K17">
+        <v>300000</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="1"/>
-        <v>280000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1265,27 +1268,27 @@
         <v>44989</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-      <c r="K18">
+        <v>100000</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1296,16 +1299,16 @@
         <v>44989</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2">
         <v>100000</v>
@@ -1314,9 +1317,9 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1327,27 +1330,27 @@
         <v>44989</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="K20">
+        <v>200000</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1358,27 +1361,27 @@
         <v>44989</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G21" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="K21">
+        <v>100000</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="1"/>
-        <v>130000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1389,27 +1392,27 @@
         <v>44989</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G22" s="2">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="K22">
+        <v>250000</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1420,27 +1423,27 @@
         <v>44989</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G23" s="2">
-        <v>250000</v>
+        <v>1100000</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
-      <c r="K23">
+        <v>1100000</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1451,27 +1454,27 @@
         <v>44989</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="2">
-        <v>1100000</v>
+        <v>200000</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="0"/>
-        <v>1100000</v>
-      </c>
-      <c r="K24">
+        <v>200000</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="1"/>
-        <v>550000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1482,27 +1485,27 @@
         <v>44989</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="K25">
+        <v>100000</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="1"/>
-        <v>200000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1513,27 +1516,27 @@
         <v>44989</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2">
-        <v>100000</v>
+        <v>550000</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="K26">
+        <v>550000</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1541,30 +1544,30 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2">
-        <v>550000</v>
+        <v>185000</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>550000</v>
-      </c>
-      <c r="K27">
+        <v>185000</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="1"/>
-        <v>550000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1575,27 +1578,27 @@
         <v>44990</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G28" s="2">
-        <v>185000</v>
+        <v>15000</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="0"/>
-        <v>185000</v>
-      </c>
-      <c r="K28">
+        <v>15000</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>111000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1606,27 +1609,27 @@
         <v>44990</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="K29">
+        <v>100000</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1637,27 +1640,27 @@
         <v>44990</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G30" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="K30">
+        <v>200000</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1668,16 +1671,16 @@
         <v>44990</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G31" s="2">
         <v>200000</v>
@@ -1686,9 +1689,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="4">
         <f t="shared" si="1"/>
-        <v>130000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1699,27 +1702,27 @@
         <v>44990</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" s="2">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="K32">
+        <v>130000</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="1"/>
-        <v>200000</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1730,7 +1733,7 @@
         <v>44990</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1739,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33" s="2">
         <v>130000</v>
@@ -1748,9 +1751,9 @@
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="4">
         <f t="shared" si="1"/>
-        <v>32500</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1761,27 +1764,27 @@
         <v>44990</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="G34" s="2">
-        <v>130000</v>
+        <v>700000</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ref="H34:H65" si="2">D34*G34</f>
-        <v>130000</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
-        <v>32500</v>
+        <v>700000</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" ref="K34:K65" si="3">IF(E34="INTERNALSTORAGE",H34*52%,IF(E34="SERVICE",H34*100%,IF(E34="DISPLAY",H34*50%,IF(E34="RAM",H34*52%,IF(E34="SOFTWARE",H34*100%,IF(E34="BATTERY",H34*45%,IF(E34="KEYBOARD",150000,IF(E34="ADAPTOR",H34*40%,IF(E34="MAINBOARD",100000,IF(E34="ACCESSORIES",H34*35%,IF(E34="VGA",100000,IF(E34="POWERSUPPLY",H34*30%,IF(E34="PROCESSOR",150000,IF(E34="SECOND",H34*150%,IF(E34="CASING",100000,IF(E34="MONITOR",100000,IF(E34="EXTERNALSTORAGE",100000,H34)))))))))))))))))</f>
+        <v>364000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1789,30 +1792,30 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>45015</v>
+        <v>44990</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="G35" s="2">
-        <v>700000</v>
+        <v>200000</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>700000</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="1"/>
-        <v>364000</v>
+        <v>200000</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="3"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1823,27 +1826,27 @@
         <v>44990</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
-        <v>130000</v>
+        <v>150000</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="3"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1851,30 +1854,30 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G37" s="2">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>200000</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="3"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1885,27 +1888,27 @@
         <v>44991</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G38" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>130000</v>
+        <v>100000</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1916,27 +1919,27 @@
         <v>44991</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="G39" s="2">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>450000</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="3"/>
+        <v>450000</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1947,27 +1950,27 @@
         <v>44991</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="G40" s="2">
-        <v>450000</v>
+        <v>650000</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="2"/>
-        <v>450000</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="1"/>
-        <v>450000</v>
+        <v>650000</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="3"/>
+        <v>325000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1978,27 +1981,27 @@
         <v>44991</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G41" s="2">
-        <v>650000</v>
+        <v>100000</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="2"/>
-        <v>650000</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
-        <v>325000</v>
+        <v>200000</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2009,27 +2012,27 @@
         <v>44991</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G42" s="2">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="1"/>
-        <v>200000</v>
+        <v>400000</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2037,30 +2040,30 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="G43" s="2">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="2"/>
-        <v>400000</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>600000</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="3"/>
+        <v>312000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2068,30 +2071,30 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>45013</v>
+        <v>44992</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="G44" s="2">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="2"/>
-        <v>600000</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="1"/>
-        <v>312000</v>
+        <v>100000</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2102,27 +2105,27 @@
         <v>44992</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G45" s="2">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>450000</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="3"/>
+        <v>450000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2130,30 +2133,30 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G46" s="2">
-        <v>450000</v>
+        <v>100000</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="2"/>
-        <v>450000</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="1"/>
-        <v>450000</v>
+        <v>100000</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2164,27 +2167,27 @@
         <v>44993</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G47" s="2">
-        <v>100000</v>
+        <v>550000</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>550000</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="3"/>
+        <v>286000</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2192,7 +2195,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>44988</v>
+        <v>44994</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2201,21 +2204,21 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G48" s="2">
-        <v>550000</v>
+        <v>100000</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="2"/>
-        <v>550000</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="1"/>
-        <v>286000</v>
+        <v>100000</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2226,27 +2229,27 @@
         <v>44994</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G49" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>200000</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="3"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2257,27 +2260,27 @@
         <v>44994</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G50" s="2">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="1"/>
-        <v>40000</v>
+        <v>300000</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="3"/>
+        <v>156000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2288,27 +2291,27 @@
         <v>44994</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G51" s="2">
-        <v>300000</v>
+        <v>550000</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="1"/>
-        <v>195000</v>
+        <v>550000</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="3"/>
+        <v>286000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2316,30 +2319,31 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>45003</v>
+        <v>44994</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="G52" s="2">
-        <v>550000</v>
+        <v>300000</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="2"/>
-        <v>550000</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="1"/>
-        <v>286000</v>
+        <v>300000</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="K52" s="4">
+        <f t="shared" si="3"/>
+        <v>450000</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2350,28 +2354,27 @@
         <v>44994</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G53" s="2">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="K53">
-        <f t="shared" si="1"/>
-        <v>450000</v>
+        <v>350000</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="3"/>
+        <v>157500</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2382,27 +2385,30 @@
         <v>44994</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G54" s="2">
-        <v>350000</v>
+        <v>325000</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="2"/>
-        <v>350000</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="1"/>
-        <v>244999.99999999997</v>
+        <v>325000</v>
+      </c>
+      <c r="I54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="3"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2413,30 +2419,30 @@
         <v>44994</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G55" s="2">
-        <v>325000</v>
+        <v>100000</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="2"/>
-        <v>325000</v>
+        <v>100000</v>
       </c>
       <c r="I55" t="s">
         <v>58</v>
       </c>
-      <c r="K55">
-        <f t="shared" si="1"/>
-        <v>195000</v>
+      <c r="K55" s="4">
+        <f t="shared" si="3"/>
+        <v>35000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2447,30 +2453,27 @@
         <v>44994</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G56" s="2">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="I56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>250000</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="3"/>
+        <v>250000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2478,30 +2481,30 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G57" s="2">
-        <v>250000</v>
+        <v>550000</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="2"/>
-        <v>250000</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="1"/>
-        <v>250000</v>
+        <v>550000</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="3"/>
+        <v>286000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2512,7 +2515,7 @@
         <v>44995</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2521,18 +2524,18 @@
         <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G58" s="2">
-        <v>550000</v>
+        <v>200000</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="2"/>
-        <v>550000</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="1"/>
-        <v>357500</v>
+        <v>200000</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="3"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2540,19 +2543,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G59" s="2">
         <v>200000</v>
@@ -2561,9 +2564,9 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="K59">
-        <f t="shared" si="1"/>
-        <v>130000</v>
+      <c r="K59" s="4">
+        <f t="shared" si="3"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2574,27 +2577,27 @@
         <v>44996</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+        <v>100000</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2605,27 +2608,28 @@
         <v>44996</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G61" s="2">
-        <v>100000</v>
+        <v>630000</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>630000</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="K61" s="4">
+        <f t="shared" si="3"/>
+        <v>630000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2636,28 +2640,27 @@
         <v>44996</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G62" s="2">
-        <v>630000</v>
+        <v>200000</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="2"/>
-        <v>630000</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="K62">
-        <f t="shared" si="1"/>
-        <v>630000</v>
+        <v>400000</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="3"/>
+        <v>208000</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2665,30 +2668,30 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G63" s="2">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="2"/>
-        <v>400000</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="1"/>
-        <v>260000</v>
+        <v>300000</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="3"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2699,27 +2702,27 @@
         <v>44997</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G64" s="2">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>150000</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="3"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2730,27 +2733,27 @@
         <v>44997</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G65" s="2">
-        <v>150000</v>
+        <v>650000</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
-        <v>67500</v>
+        <v>650000</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2761,27 +2764,28 @@
         <v>44997</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G66" s="2">
-        <v>650000</v>
+        <v>200000</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" ref="H66:H97" si="3">D66*G66</f>
-        <v>650000</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="1"/>
-        <v>97500</v>
+        <f t="shared" ref="H66:H97" si="4">D66*G66</f>
+        <v>200000</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="K66" s="4">
+        <f t="shared" ref="K66:K97" si="5">IF(E66="INTERNALSTORAGE",H66*52%,IF(E66="SERVICE",H66*100%,IF(E66="DISPLAY",H66*50%,IF(E66="RAM",H66*52%,IF(E66="SOFTWARE",H66*100%,IF(E66="BATTERY",H66*45%,IF(E66="KEYBOARD",150000,IF(E66="ADAPTOR",H66*40%,IF(E66="MAINBOARD",100000,IF(E66="ACCESSORIES",H66*35%,IF(E66="VGA",100000,IF(E66="POWERSUPPLY",H66*30%,IF(E66="PROCESSOR",150000,IF(E66="SECOND",H66*150%,IF(E66="CASING",100000,IF(E66="MONITOR",100000,IF(E66="EXTERNALSTORAGE",100000,H66)))))))))))))))))</f>
+        <v>60000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2792,28 +2796,27 @@
         <v>44997</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="K67">
-        <f t="shared" ref="K67:K130" si="4">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
-        <v>80000</v>
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="5"/>
+        <v>200000</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -2824,27 +2827,27 @@
         <v>44997</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G68" s="2">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-      <c r="K68">
         <f t="shared" si="4"/>
-        <v>200000</v>
+        <v>400000</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="5"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2852,30 +2855,30 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G69" s="2">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="3"/>
-        <v>400000</v>
-      </c>
-      <c r="K69">
         <f t="shared" si="4"/>
-        <v>240000</v>
+        <v>500000</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="5"/>
+        <v>250000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -2886,27 +2889,27 @@
         <v>44998</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G70" s="2">
-        <v>500000</v>
+        <v>70000</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="K70">
         <f t="shared" si="4"/>
-        <v>250000</v>
+        <v>70000</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="5"/>
+        <v>24500</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -2917,27 +2920,27 @@
         <v>44998</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G71" s="2">
-        <v>70000</v>
+        <v>150000</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="3"/>
-        <v>70000</v>
-      </c>
-      <c r="K71">
         <f t="shared" si="4"/>
-        <v>17500</v>
+        <v>150000</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="5"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -2945,30 +2948,30 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G72" s="2">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="3"/>
-        <v>150000</v>
-      </c>
-      <c r="K72">
         <f t="shared" si="4"/>
-        <v>90000</v>
+        <v>200000</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="5"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -2979,27 +2982,27 @@
         <v>44999</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G73" s="2">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-      <c r="K73">
         <f t="shared" si="4"/>
-        <v>130000</v>
+        <v>500000</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="5"/>
+        <v>260000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3007,30 +3010,30 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>44988</v>
+        <v>44999</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="G74" s="2">
-        <v>500000</v>
+        <v>1050000</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="K74">
         <f t="shared" si="4"/>
-        <v>260000</v>
+        <v>1050000</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="5"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3038,10 +3041,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>44990</v>
+        <v>44999</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3056,11 +3059,11 @@
         <v>450000</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>450000</v>
       </c>
-      <c r="K75">
-        <f t="shared" si="4"/>
+      <c r="K75" s="4">
+        <f t="shared" si="5"/>
         <v>234000</v>
       </c>
     </row>
@@ -3072,7 +3075,7 @@
         <v>44999</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3087,12 +3090,12 @@
         <v>325000</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>325000</v>
       </c>
-      <c r="K76">
-        <f t="shared" si="4"/>
-        <v>211250</v>
+      <c r="K76" s="4">
+        <f t="shared" si="5"/>
+        <v>169000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3118,12 +3121,12 @@
         <v>100000</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="K77">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>100000</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="5"/>
+        <v>35000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3149,15 +3152,15 @@
         <v>200000</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200000</v>
       </c>
       <c r="I78" t="s">
         <v>76</v>
       </c>
-      <c r="K78">
-        <f t="shared" si="4"/>
-        <v>120000</v>
+      <c r="K78" s="4">
+        <f t="shared" si="5"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3183,14 +3186,14 @@
         <v>50000</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="I79" t="s">
         <v>76</v>
       </c>
-      <c r="K79">
-        <f t="shared" si="4"/>
+      <c r="K79" s="4">
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -3217,12 +3220,12 @@
         <v>200000</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-      <c r="K80">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>200000</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="5"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3248,11 +3251,11 @@
         <v>50000</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
-      <c r="K81">
-        <f t="shared" si="4"/>
+      <c r="K81" s="4">
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -3261,7 +3264,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>45001</v>
+        <v>45000</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -3279,11 +3282,11 @@
         <v>450000</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>450000</v>
       </c>
-      <c r="K82">
-        <f t="shared" si="4"/>
+      <c r="K82" s="4">
+        <f t="shared" si="5"/>
         <v>234000</v>
       </c>
     </row>
@@ -3310,12 +3313,12 @@
         <v>70000</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70000</v>
       </c>
-      <c r="K83">
-        <f t="shared" si="4"/>
-        <v>17500</v>
+      <c r="K83" s="4">
+        <f t="shared" si="5"/>
+        <v>24500</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3341,11 +3344,11 @@
         <v>50000</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
-      <c r="K84">
-        <f t="shared" si="4"/>
+      <c r="K84" s="4">
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -3372,11 +3375,11 @@
         <v>50000</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
-      <c r="K85">
-        <f t="shared" si="4"/>
+      <c r="K85" s="4">
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -3385,7 +3388,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -3403,11 +3406,11 @@
         <v>400000</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400000</v>
       </c>
-      <c r="K86">
-        <f t="shared" si="4"/>
+      <c r="K86" s="4">
+        <f t="shared" si="5"/>
         <v>208000</v>
       </c>
     </row>
@@ -3434,12 +3437,12 @@
         <v>550000</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>550000</v>
       </c>
-      <c r="K87">
-        <f t="shared" si="4"/>
-        <v>385000</v>
+      <c r="K87" s="4">
+        <f t="shared" si="5"/>
+        <v>247500</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3465,15 +3468,15 @@
         <v>180000</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180000</v>
       </c>
       <c r="I88" s="2">
         <f>SUM(H86:H88)</f>
         <v>1130000</v>
       </c>
-      <c r="K88">
-        <f t="shared" si="4"/>
+      <c r="K88" s="4">
+        <f t="shared" si="5"/>
         <v>180000</v>
       </c>
     </row>
@@ -3500,11 +3503,11 @@
         <v>100000</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="K89">
         <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K89" s="4">
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
     </row>
@@ -3531,11 +3534,11 @@
         <v>100000</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="K90">
         <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
     </row>
@@ -3562,12 +3565,12 @@
         <v>100000</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="K91">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>100000</v>
+      </c>
+      <c r="K91" s="4">
+        <f t="shared" si="5"/>
+        <v>35000</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3593,12 +3596,12 @@
         <v>150000</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150000</v>
       </c>
-      <c r="K92">
-        <f t="shared" si="4"/>
-        <v>67500</v>
+      <c r="K92" s="4">
+        <f t="shared" si="5"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3624,11 +3627,11 @@
         <v>100000</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="K93">
         <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
     </row>
@@ -3655,12 +3658,12 @@
         <v>300000</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="K94">
-        <f t="shared" si="4"/>
-        <v>195000</v>
+      <c r="K94" s="4">
+        <f t="shared" si="5"/>
+        <v>156000</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -3686,11 +3689,11 @@
         <v>30000</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="K95">
-        <f t="shared" si="4"/>
+      <c r="K95" s="4">
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
     </row>
@@ -3717,11 +3720,11 @@
         <v>100000</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="K96">
         <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
     </row>
@@ -3748,12 +3751,12 @@
         <v>180000</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180000</v>
       </c>
-      <c r="K97">
-        <f t="shared" si="4"/>
-        <v>108000</v>
+      <c r="K97" s="4">
+        <f t="shared" si="5"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -3779,12 +3782,12 @@
         <v>200000</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" ref="H98:H129" si="5">D98*G98</f>
-        <v>200000</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="4"/>
-        <v>90000</v>
+        <f t="shared" ref="H98:H129" si="6">D98*G98</f>
+        <v>200000</v>
+      </c>
+      <c r="K98" s="4">
+        <f t="shared" ref="K98:K129" si="7">IF(E98="INTERNALSTORAGE",H98*52%,IF(E98="SERVICE",H98*100%,IF(E98="DISPLAY",H98*50%,IF(E98="RAM",H98*52%,IF(E98="SOFTWARE",H98*100%,IF(E98="BATTERY",H98*45%,IF(E98="KEYBOARD",150000,IF(E98="ADAPTOR",H98*40%,IF(E98="MAINBOARD",100000,IF(E98="ACCESSORIES",H98*35%,IF(E98="VGA",100000,IF(E98="POWERSUPPLY",H98*30%,IF(E98="PROCESSOR",150000,IF(E98="SECOND",H98*150%,IF(E98="CASING",100000,IF(E98="MONITOR",100000,IF(E98="EXTERNALSTORAGE",100000,H98)))))))))))))))))</f>
+        <v>80000</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -3810,11 +3813,11 @@
         <v>100000</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K99" s="4">
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
     </row>
@@ -3841,11 +3844,11 @@
         <v>200000</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K100" s="4">
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
     </row>
@@ -3854,10 +3857,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>44992</v>
+        <v>45003</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -3872,11 +3875,11 @@
         <v>350000</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350000</v>
       </c>
-      <c r="K101">
-        <f t="shared" si="4"/>
+      <c r="K101" s="4">
+        <f t="shared" si="7"/>
         <v>182000</v>
       </c>
     </row>
@@ -3903,12 +3906,12 @@
         <v>200000</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>400000</v>
       </c>
-      <c r="K102">
-        <f t="shared" si="4"/>
-        <v>260000</v>
+      <c r="K102" s="4">
+        <f t="shared" si="7"/>
+        <v>208000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3916,10 +3919,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>44993</v>
+        <v>45003</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3934,11 +3937,11 @@
         <v>350000</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350000</v>
       </c>
-      <c r="K103">
-        <f t="shared" si="4"/>
+      <c r="K103" s="4">
+        <f t="shared" si="7"/>
         <v>182000</v>
       </c>
     </row>
@@ -3947,10 +3950,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>44994</v>
+        <v>45004</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3965,11 +3968,11 @@
         <v>350000</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350000</v>
       </c>
-      <c r="K104">
-        <f t="shared" si="4"/>
+      <c r="K104" s="4">
+        <f t="shared" si="7"/>
         <v>182000</v>
       </c>
     </row>
@@ -3996,12 +3999,12 @@
         <v>70000</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
-      <c r="K105">
-        <f t="shared" si="4"/>
-        <v>52500</v>
+      <c r="K105" s="4">
+        <f t="shared" si="7"/>
+        <v>73500</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4027,12 +4030,12 @@
         <v>200000</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="4"/>
-        <v>130000</v>
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K106" s="4">
+        <f t="shared" si="7"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4058,12 +4061,12 @@
         <v>575000</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>575000</v>
       </c>
-      <c r="K107">
-        <f t="shared" si="4"/>
-        <v>373750</v>
+      <c r="K107" s="4">
+        <f t="shared" si="7"/>
+        <v>299000</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4089,11 +4092,11 @@
         <v>100000</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K108" s="4">
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
     </row>
@@ -4120,11 +4123,11 @@
         <v>100000</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K109" s="4">
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
     </row>
@@ -4151,12 +4154,12 @@
         <v>180000</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="K110">
-        <f t="shared" si="4"/>
-        <v>81000</v>
+      <c r="K110" s="4">
+        <f t="shared" si="7"/>
+        <v>72000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4182,12 +4185,12 @@
         <v>150000</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150000</v>
       </c>
-      <c r="K111">
-        <f t="shared" si="4"/>
-        <v>90000</v>
+      <c r="K111" s="4">
+        <f t="shared" si="7"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4213,11 +4216,11 @@
         <v>100000</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K112" s="4">
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
     </row>
@@ -4244,12 +4247,12 @@
         <v>320000</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>320000</v>
       </c>
-      <c r="K113">
-        <f t="shared" si="4"/>
-        <v>224000</v>
+      <c r="K113" s="4">
+        <f t="shared" si="7"/>
+        <v>144000</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4275,12 +4278,12 @@
         <v>200000</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="4"/>
-        <v>120000</v>
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K114" s="4">
+        <f t="shared" si="7"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -4306,11 +4309,11 @@
         <v>50000</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-      <c r="K115">
-        <f t="shared" si="4"/>
+      <c r="K115" s="4">
+        <f t="shared" si="7"/>
         <v>50000</v>
       </c>
     </row>
@@ -4337,11 +4340,11 @@
         <v>50000</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-      <c r="K116">
-        <f t="shared" si="4"/>
+      <c r="K116" s="4">
+        <f t="shared" si="7"/>
         <v>50000</v>
       </c>
     </row>
@@ -4350,10 +4353,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>45000</v>
+        <v>45005</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4368,11 +4371,11 @@
         <v>350000</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350000</v>
       </c>
-      <c r="K117">
-        <f t="shared" si="4"/>
+      <c r="K117" s="4">
+        <f t="shared" si="7"/>
         <v>182000</v>
       </c>
     </row>
@@ -4381,10 +4384,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>45003</v>
+        <v>45006</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -4399,11 +4402,11 @@
         <v>350000</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350000</v>
       </c>
-      <c r="K118">
-        <f t="shared" si="4"/>
+      <c r="K118" s="4">
+        <f t="shared" si="7"/>
         <v>182000</v>
       </c>
     </row>
@@ -4430,11 +4433,11 @@
         <v>550000</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>550000</v>
       </c>
-      <c r="K119">
-        <f t="shared" si="4"/>
+      <c r="K119" s="4">
+        <f t="shared" si="7"/>
         <v>550000</v>
       </c>
     </row>
@@ -4461,12 +4464,12 @@
         <v>650000</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>650000</v>
       </c>
-      <c r="K120">
-        <f t="shared" si="4"/>
-        <v>97500</v>
+      <c r="K120" s="4">
+        <f t="shared" si="7"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4492,11 +4495,11 @@
         <v>200000</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K121" s="4">
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
     </row>
@@ -4523,11 +4526,11 @@
         <v>550000</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>550000</v>
       </c>
-      <c r="K122">
-        <f t="shared" si="4"/>
+      <c r="K122" s="4">
+        <f t="shared" si="7"/>
         <v>275000</v>
       </c>
     </row>
@@ -4554,11 +4557,11 @@
         <v>200000</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="K123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K123" s="4">
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
     </row>
@@ -4585,11 +4588,11 @@
         <v>100000</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="K124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K124" s="4">
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
     </row>
@@ -4616,12 +4619,12 @@
         <v>300000</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
-      <c r="K125">
-        <f t="shared" si="4"/>
-        <v>210000</v>
+      <c r="K125" s="4">
+        <f t="shared" si="7"/>
+        <v>135000</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -4647,12 +4650,12 @@
         <v>200000</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="K126">
-        <f t="shared" si="4"/>
-        <v>130000</v>
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K126" s="4">
+        <f t="shared" si="7"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -4678,12 +4681,12 @@
         <v>100000</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="5"/>
-        <v>100000</v>
-      </c>
-      <c r="K127">
-        <f t="shared" si="4"/>
-        <v>25000</v>
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K127" s="4">
+        <f t="shared" si="7"/>
+        <v>35000</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -4691,10 +4694,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>45014</v>
+        <v>45006</v>
       </c>
       <c r="C128">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4709,11 +4712,11 @@
         <v>350000</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350000</v>
       </c>
-      <c r="K128">
-        <f t="shared" si="4"/>
+      <c r="K128" s="4">
+        <f t="shared" si="7"/>
         <v>182000</v>
       </c>
     </row>
@@ -4740,12 +4743,12 @@
         <v>200000</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="K129">
-        <f t="shared" si="4"/>
-        <v>130000</v>
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="K129" s="4">
+        <f t="shared" si="7"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -4771,11 +4774,11 @@
         <v>100000</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" ref="H130:H152" si="6">D130*G130</f>
-        <v>200000</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H130:H161" si="8">D130*G130</f>
+        <v>200000</v>
+      </c>
+      <c r="K130" s="4">
+        <f t="shared" ref="K130:K161" si="9">IF(E130="INTERNALSTORAGE",H130*52%,IF(E130="SERVICE",H130*100%,IF(E130="DISPLAY",H130*50%,IF(E130="RAM",H130*52%,IF(E130="SOFTWARE",H130*100%,IF(E130="BATTERY",H130*45%,IF(E130="KEYBOARD",150000,IF(E130="ADAPTOR",H130*40%,IF(E130="MAINBOARD",100000,IF(E130="ACCESSORIES",H130*35%,IF(E130="VGA",100000,IF(E130="POWERSUPPLY",H130*30%,IF(E130="PROCESSOR",150000,IF(E130="SECOND",H130*150%,IF(E130="CASING",100000,IF(E130="MONITOR",100000,IF(E130="EXTERNALSTORAGE",100000,H130)))))))))))))))))</f>
         <v>200000</v>
       </c>
     </row>
@@ -4802,12 +4805,12 @@
         <v>180000</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>180000</v>
       </c>
-      <c r="K131">
-        <f t="shared" ref="K131:K175" si="7">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*65%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*70%,IF(E131="KEYBOARD",H131*60%,IF(E131="ADAPTOR",H131*45%,IF(E131="MAINBOARD",H131*15%,IF(E131="ACCESSORIES",H131*25%,IF(E131="VGA",H131*15%,IF(E131="POWERSUPPLY",H131*40%,IF(E131="PROCESSOR",H131*20%,IF(E131="SECOND",H131*150%,IF(E131="CASING",H131*15%,IF(E131="MONITOR",H131*5%,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
-        <v>108000</v>
+      <c r="K131" s="4">
+        <f t="shared" si="9"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -4833,13 +4836,13 @@
         <v>420000</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>420000</v>
       </c>
       <c r="I132" s="2"/>
-      <c r="K132">
-        <f t="shared" si="7"/>
-        <v>273000</v>
+      <c r="K132" s="4">
+        <f t="shared" si="9"/>
+        <v>218400</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -4865,12 +4868,12 @@
         <v>120000</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>120000</v>
       </c>
-      <c r="K133">
-        <f t="shared" si="7"/>
-        <v>30000</v>
+      <c r="K133" s="4">
+        <f t="shared" si="9"/>
+        <v>42000</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -4896,11 +4899,11 @@
         <v>450000</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>450000</v>
       </c>
-      <c r="K134">
-        <f t="shared" si="7"/>
+      <c r="K134" s="4">
+        <f t="shared" si="9"/>
         <v>450000</v>
       </c>
     </row>
@@ -4927,12 +4930,12 @@
         <v>330000</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>330000</v>
       </c>
-      <c r="K135">
-        <f t="shared" si="7"/>
-        <v>230999.99999999997</v>
+      <c r="K135" s="4">
+        <f t="shared" si="9"/>
+        <v>148500</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -4958,11 +4961,11 @@
         <v>100000</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="6"/>
-        <v>200000</v>
-      </c>
-      <c r="K136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="K136" s="4">
+        <f t="shared" si="9"/>
         <v>200000</v>
       </c>
     </row>
@@ -4989,11 +4992,11 @@
         <v>50000</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50000</v>
       </c>
-      <c r="K137">
-        <f t="shared" si="7"/>
+      <c r="K137" s="4">
+        <f t="shared" si="9"/>
         <v>50000</v>
       </c>
     </row>
@@ -5020,12 +5023,12 @@
         <v>200000</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="6"/>
-        <v>200000</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="7"/>
-        <v>90000</v>
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="K138" s="4">
+        <f t="shared" si="9"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5051,11 +5054,11 @@
         <v>250000</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>250000</v>
       </c>
-      <c r="K139">
-        <f t="shared" si="7"/>
+      <c r="K139" s="4">
+        <f t="shared" si="9"/>
         <v>250000</v>
       </c>
     </row>
@@ -5082,11 +5085,11 @@
         <v>100000</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="K140" s="4">
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
     </row>
@@ -5113,12 +5116,12 @@
         <v>350000</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>350000</v>
       </c>
-      <c r="K141">
-        <f t="shared" si="7"/>
-        <v>210000</v>
+      <c r="K141" s="4">
+        <f t="shared" si="9"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5144,11 +5147,11 @@
         <v>250000</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>250000</v>
       </c>
-      <c r="K142">
-        <f t="shared" si="7"/>
+      <c r="K142" s="4">
+        <f t="shared" si="9"/>
         <v>250000</v>
       </c>
     </row>
@@ -5175,7 +5178,7 @@
         <v>100000</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100000</v>
       </c>
       <c r="I143" t="s">
@@ -5184,8 +5187,8 @@
       <c r="J143" s="3">
         <v>62895327079005</v>
       </c>
-      <c r="K143">
-        <f t="shared" si="7"/>
+      <c r="K143" s="4">
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
     </row>
@@ -5212,11 +5215,11 @@
         <v>50000</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50000</v>
       </c>
-      <c r="K144">
-        <f t="shared" si="7"/>
+      <c r="K144" s="4">
+        <f t="shared" si="9"/>
         <v>50000</v>
       </c>
     </row>
@@ -5243,11 +5246,11 @@
         <v>100000</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="K145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="K145" s="4">
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
     </row>
@@ -5274,11 +5277,11 @@
         <v>250000</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>250000</v>
       </c>
-      <c r="K146">
-        <f t="shared" si="7"/>
+      <c r="K146" s="4">
+        <f t="shared" si="9"/>
         <v>150000</v>
       </c>
     </row>
@@ -5305,11 +5308,11 @@
         <v>250000</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>250000</v>
       </c>
-      <c r="K147">
-        <f t="shared" si="7"/>
+      <c r="K147" s="4">
+        <f t="shared" si="9"/>
         <v>250000</v>
       </c>
     </row>
@@ -5336,12 +5339,12 @@
         <v>130000</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>130000</v>
       </c>
-      <c r="K148">
-        <f t="shared" si="7"/>
-        <v>32500</v>
+      <c r="K148" s="4">
+        <f t="shared" si="9"/>
+        <v>45500</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -5367,11 +5370,11 @@
         <v>100000</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="K149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="K149" s="4">
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
     </row>
@@ -5398,12 +5401,12 @@
         <v>200000</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="6"/>
-        <v>200000</v>
-      </c>
-      <c r="K150">
-        <f t="shared" si="7"/>
-        <v>90000</v>
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="K150" s="4">
+        <f t="shared" si="9"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -5429,11 +5432,11 @@
         <v>100000</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="K151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="K151" s="4">
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
     </row>
@@ -5460,12 +5463,12 @@
         <v>300000</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>300000</v>
       </c>
-      <c r="K152">
-        <f t="shared" si="7"/>
-        <v>180000</v>
+      <c r="K152" s="4">
+        <f t="shared" si="9"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -5491,11 +5494,11 @@
         <v>100000</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" ref="H153:H175" si="8">D153*G153</f>
-        <v>100000</v>
-      </c>
-      <c r="K153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="K153" s="4">
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
     </row>
@@ -5525,8 +5528,8 @@
         <f t="shared" si="8"/>
         <v>150000</v>
       </c>
-      <c r="K154">
-        <f t="shared" si="7"/>
+      <c r="K154" s="4">
+        <f t="shared" si="9"/>
         <v>150000</v>
       </c>
     </row>
@@ -5556,8 +5559,8 @@
         <f t="shared" si="8"/>
         <v>600000</v>
       </c>
-      <c r="K155">
-        <f t="shared" si="7"/>
+      <c r="K155" s="4">
+        <f t="shared" si="9"/>
         <v>312000</v>
       </c>
     </row>
@@ -5587,9 +5590,9 @@
         <f t="shared" si="8"/>
         <v>970000</v>
       </c>
-      <c r="K156">
-        <f t="shared" si="7"/>
-        <v>630500</v>
+      <c r="K156" s="4">
+        <f t="shared" si="9"/>
+        <v>504400</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -5618,8 +5621,8 @@
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
-      <c r="K157">
-        <f t="shared" si="7"/>
+      <c r="K157" s="4">
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
     </row>
@@ -5649,8 +5652,8 @@
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
-      <c r="K158">
-        <f t="shared" si="7"/>
+      <c r="K158" s="4">
+        <f t="shared" si="9"/>
         <v>50000</v>
       </c>
     </row>
@@ -5680,8 +5683,8 @@
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
-      <c r="K159">
-        <f t="shared" si="7"/>
+      <c r="K159" s="4">
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
     </row>
@@ -5711,9 +5714,9 @@
         <f t="shared" si="8"/>
         <v>200000</v>
       </c>
-      <c r="K160">
-        <f t="shared" si="7"/>
-        <v>130000</v>
+      <c r="K160" s="4">
+        <f t="shared" si="9"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -5742,9 +5745,9 @@
         <f t="shared" si="8"/>
         <v>180000</v>
       </c>
-      <c r="K161">
-        <f t="shared" si="7"/>
-        <v>45000</v>
+      <c r="K161" s="4">
+        <f t="shared" si="9"/>
+        <v>62999.999999999993</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -5770,11 +5773,11 @@
         <v>200000</v>
       </c>
       <c r="H162" s="2">
-        <f t="shared" si="8"/>
-        <v>200000</v>
-      </c>
-      <c r="K162">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H162:H175" si="10">D162*G162</f>
+        <v>200000</v>
+      </c>
+      <c r="K162" s="4">
+        <f t="shared" ref="K162:K175" si="11">IF(E162="INTERNALSTORAGE",H162*52%,IF(E162="SERVICE",H162*100%,IF(E162="DISPLAY",H162*50%,IF(E162="RAM",H162*52%,IF(E162="SOFTWARE",H162*100%,IF(E162="BATTERY",H162*45%,IF(E162="KEYBOARD",150000,IF(E162="ADAPTOR",H162*40%,IF(E162="MAINBOARD",100000,IF(E162="ACCESSORIES",H162*35%,IF(E162="VGA",100000,IF(E162="POWERSUPPLY",H162*30%,IF(E162="PROCESSOR",150000,IF(E162="SECOND",H162*150%,IF(E162="CASING",100000,IF(E162="MONITOR",100000,IF(E162="EXTERNALSTORAGE",100000,H162)))))))))))))))))</f>
         <v>200000</v>
       </c>
     </row>
@@ -5801,11 +5804,11 @@
         <v>350000</v>
       </c>
       <c r="H163" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>350000</v>
       </c>
-      <c r="K163">
-        <f t="shared" si="7"/>
+      <c r="K163" s="4">
+        <f t="shared" si="11"/>
         <v>182000</v>
       </c>
     </row>
@@ -5832,12 +5835,12 @@
         <v>150000</v>
       </c>
       <c r="H164" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>150000</v>
       </c>
-      <c r="K164">
-        <f t="shared" si="7"/>
-        <v>90000</v>
+      <c r="K164" s="4">
+        <f t="shared" si="11"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -5863,12 +5866,12 @@
         <v>200000</v>
       </c>
       <c r="H165" s="2">
-        <f t="shared" si="8"/>
-        <v>200000</v>
-      </c>
-      <c r="K165">
-        <f t="shared" si="7"/>
-        <v>90000</v>
+        <f t="shared" si="10"/>
+        <v>200000</v>
+      </c>
+      <c r="K165" s="4">
+        <f t="shared" si="11"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -5894,12 +5897,12 @@
         <v>90000</v>
       </c>
       <c r="H166" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90000</v>
       </c>
-      <c r="K166">
-        <f t="shared" si="7"/>
-        <v>22500</v>
+      <c r="K166" s="4">
+        <f t="shared" si="11"/>
+        <v>31499.999999999996</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -5925,11 +5928,11 @@
         <v>700000</v>
       </c>
       <c r="H167" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>700000</v>
       </c>
-      <c r="K167">
-        <f t="shared" si="7"/>
+      <c r="K167" s="4">
+        <f t="shared" si="11"/>
         <v>364000</v>
       </c>
     </row>
@@ -5956,12 +5959,12 @@
         <v>180000</v>
       </c>
       <c r="H168" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>180000</v>
       </c>
-      <c r="K168">
-        <f t="shared" si="7"/>
-        <v>45000</v>
+      <c r="K168" s="4">
+        <f t="shared" si="11"/>
+        <v>62999.999999999993</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -5987,11 +5990,11 @@
         <v>100000</v>
       </c>
       <c r="H169" s="2">
-        <f t="shared" si="8"/>
-        <v>100000</v>
-      </c>
-      <c r="K169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="K169" s="4">
+        <f t="shared" si="11"/>
         <v>100000</v>
       </c>
     </row>
@@ -6018,11 +6021,11 @@
         <v>350000</v>
       </c>
       <c r="H170" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>350000</v>
       </c>
-      <c r="K170">
-        <f t="shared" si="7"/>
+      <c r="K170" s="4">
+        <f t="shared" si="11"/>
         <v>182000</v>
       </c>
     </row>
@@ -6049,11 +6052,11 @@
         <v>200000</v>
       </c>
       <c r="H171" s="2">
-        <f t="shared" si="8"/>
-        <v>200000</v>
-      </c>
-      <c r="K171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>200000</v>
+      </c>
+      <c r="K171" s="4">
+        <f t="shared" si="11"/>
         <v>200000</v>
       </c>
     </row>
@@ -6080,12 +6083,12 @@
         <v>200000</v>
       </c>
       <c r="H172" s="2">
-        <f t="shared" si="8"/>
-        <v>200000</v>
-      </c>
-      <c r="K172">
-        <f t="shared" si="7"/>
-        <v>80000</v>
+        <f t="shared" si="10"/>
+        <v>200000</v>
+      </c>
+      <c r="K172" s="4">
+        <f t="shared" si="11"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -6111,11 +6114,11 @@
         <v>1200000</v>
       </c>
       <c r="H173" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1200000</v>
       </c>
-      <c r="K173">
-        <f t="shared" si="7"/>
+      <c r="K173" s="4">
+        <f t="shared" si="11"/>
         <v>100000</v>
       </c>
     </row>
@@ -6142,11 +6145,11 @@
         <v>600000</v>
       </c>
       <c r="H174" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>600000</v>
       </c>
-      <c r="K174">
-        <f t="shared" si="7"/>
+      <c r="K174" s="4">
+        <f t="shared" si="11"/>
         <v>312000</v>
       </c>
     </row>
@@ -6173,19 +6176,20 @@
         <v>400000</v>
       </c>
       <c r="H175" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>400000</v>
       </c>
-      <c r="K175">
-        <f t="shared" si="7"/>
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="1"/>
+      <c r="K175" s="4">
+        <f t="shared" si="11"/>
+        <v>208000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K175" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K175" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K175">
+      <sortCondition ref="A1:A175"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
